--- a/examples/game_tables/table.xlsx
+++ b/examples/game_tables/table.xlsx
@@ -1,33 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22812"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="33" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{29BC9D1A-DDCD-4E4E-9445-8E93B4378707}"/>
-  <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <workbookPr/>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
-    <t>sheet</t>
+    <t>sheets</t>
   </si>
   <si>
     <t>ice</t>
@@ -114,200 +100,106 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="3">
     <font>
-      <sz val="11"/>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Arial"/>
     </font>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="3">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normalno" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Sheets">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4285F4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="EA4335"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="FBBC04"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="34A853"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="FF6D01"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="46BDC6"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="1155CC"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="1155CC"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -448,142 +340,135 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1">
+    <row r="1">
+      <c r="A1" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="D1" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E1" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>0</v>
-      </c>
-      <c r="D1">
-        <v>1</v>
-      </c>
-      <c r="E1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
+    <row r="3">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
+    <row r="4">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
+    <row r="5">
+      <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
+    <row r="6">
+      <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
+    <row r="7">
+      <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="B8" t="s">
+    <row r="8">
+      <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/examples/game_tables/table.xlsx
+++ b/examples/game_tables/table.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="table" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,132 +11,208 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
-  <si>
-    <t>sheets</t>
-  </si>
-  <si>
-    <t>ice</t>
-  </si>
-  <si>
-    <t>Mary</t>
-  </si>
-  <si>
-    <t>Google Drive</t>
-  </si>
-  <si>
-    <t>cellulose</t>
-  </si>
-  <si>
-    <t>Christmas</t>
-  </si>
-  <si>
-    <t>had</t>
-  </si>
-  <si>
-    <t>storm</t>
-  </si>
-  <si>
-    <t>science</t>
-  </si>
-  <si>
-    <t>flakes</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>sky</t>
-  </si>
-  <si>
-    <t>printer</t>
-  </si>
-  <si>
-    <t>mountain tops</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>steam</t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>snow</t>
-  </si>
-  <si>
-    <t>lamb</t>
-  </si>
-  <si>
-    <t>cloud</t>
-  </si>
-  <si>
-    <t>white</t>
-  </si>
-  <si>
-    <t>papers</t>
-  </si>
-  <si>
-    <t>snowy</t>
-  </si>
-  <si>
-    <t>sheep</t>
-  </si>
-  <si>
-    <t>clouds</t>
-  </si>
-  <si>
-    <t>whiteness</t>
-  </si>
-  <si>
-    <t>snowing</t>
-  </si>
-  <si>
-    <t>cloudy</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="10">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <b/>
+      <color theme="4"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <color theme="5"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <color theme="6"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <color theme="7"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
       <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <color theme="0"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <color theme="0"/>
       <name val="Arial"/>
     </font>
     <font/>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor theme="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border/>
+    <border>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="25">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="4" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="3" fillId="5" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="2" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="5" fillId="5" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="3" fillId="5" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="3" fillId="5" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -355,118 +431,157 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B1" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C1" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="D1" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="E1" s="1">
-        <v>1.0</v>
+        <f t="shared" ref="A1:B1" si="1">1</f>
+        <v>1</v>
+      </c>
+      <c r="B1" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C1" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D1" s="4">
+        <f t="shared" ref="D1:E1" si="2">1</f>
+        <v>1</v>
+      </c>
+      <c r="E1" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
+      <c r="A2" s="6" t="str">
+        <f>"sheets"</f>
+        <v>sheets</v>
+      </c>
+      <c r="B2" s="7" t="str">
+        <f>"ice"</f>
+        <v>ice</v>
+      </c>
+      <c r="C2" s="8" t="str">
+        <f>"Mary"</f>
+        <v>Mary</v>
+      </c>
+      <c r="D2" s="9" t="str">
+        <f>"Google Drive"</f>
+        <v>Google Drive</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
+      <c r="A3" s="6" t="str">
+        <f>"cellulose"</f>
+        <v>cellulose</v>
+      </c>
+      <c r="B3" s="7" t="str">
+        <f>"Christmas"</f>
+        <v>Christmas</v>
+      </c>
+      <c r="C3" s="8" t="str">
+        <f>"had"</f>
+        <v>had</v>
+      </c>
+      <c r="D3" s="9" t="str">
+        <f>"storm"</f>
+        <v>storm</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
+      <c r="A4" s="6" t="str">
+        <f>"academia"</f>
+        <v>academia</v>
+      </c>
+      <c r="B4" s="7" t="str">
+        <f>"flakes"</f>
+        <v>flakes</v>
+      </c>
+      <c r="C4" s="8" t="str">
+        <f>"a"</f>
+        <v>a</v>
+      </c>
+      <c r="D4" s="9" t="str">
+        <f>"sky"</f>
+        <v>sky</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>15</v>
+      <c r="A5" s="10" t="str">
+        <f>"printer"</f>
+        <v>printer</v>
+      </c>
+      <c r="B5" s="11" t="str">
+        <f>"mountain tops"</f>
+        <v>mountain tops</v>
+      </c>
+      <c r="C5" s="12" t="str">
+        <f>"little"</f>
+        <v>little</v>
+      </c>
+      <c r="D5" s="13" t="str">
+        <f>"water"</f>
+        <v>water</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>20</v>
+      <c r="A6" s="14" t="str">
+        <f>"paper"</f>
+        <v>paper</v>
+      </c>
+      <c r="B6" s="15" t="str">
+        <f>"snow"</f>
+        <v>snow</v>
+      </c>
+      <c r="C6" s="16" t="str">
+        <f>"lamb"</f>
+        <v>lamb</v>
+      </c>
+      <c r="D6" s="17" t="str">
+        <f>"cloud"</f>
+        <v>cloud</v>
+      </c>
+      <c r="E6" s="18" t="str">
+        <f>"white"</f>
+        <v>white</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>25</v>
+      <c r="A7" s="19" t="str">
+        <f>"papers"</f>
+        <v>papers</v>
+      </c>
+      <c r="B7" s="20" t="str">
+        <f>"snowy"</f>
+        <v>snowy</v>
+      </c>
+      <c r="C7" s="21" t="str">
+        <f>"sheep"</f>
+        <v>sheep</v>
+      </c>
+      <c r="D7" s="22" t="str">
+        <f>"clouds"</f>
+        <v>clouds</v>
+      </c>
+      <c r="E7" s="23" t="str">
+        <f>"whiteness"</f>
+        <v>whiteness</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="A8" s="24"/>
+      <c r="B8" s="20" t="str">
+        <f>"snowing"</f>
+        <v>snowing</v>
+      </c>
+      <c r="C8" s="21" t="str">
+        <f>"Aries"</f>
+        <v>Aries</v>
+      </c>
+      <c r="D8" s="22" t="str">
+        <f>"cloudy"</f>
+        <v>cloudy</v>
+      </c>
+      <c r="E8" s="24"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/examples/game_tables/table.xlsx
+++ b/examples/game_tables/table.xlsx
@@ -7,7 +7,9 @@
     <workbookView xWindow="480" yWindow="120" windowWidth="22995" windowHeight="10035"/>
   </bookViews>
   <sheets>
-    <sheet name="table" sheetId="1" r:id="rId1"/>
+    <sheet name="Table" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -15,7 +17,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -26,42 +28,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="4"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="5"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="6"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="7"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="1"/>
       <scheme val="major"/>
@@ -70,16 +37,7 @@
       <b/>
       <i/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <family val="1"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="1"/>
       <scheme val="major"/>
@@ -87,72 +45,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <family val="1"/>
-      <scheme val="major"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -167,64 +70,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -534,163 +398,163 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+      <c r="A1" s="6">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B1" s="6">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="6">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D1" s="4">
+      <c r="D1" s="6">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="E1" s="5">
+      <c r="E1" s="6">
         <f>1</f>
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="str">
+      <c r="A2" s="1" t="str">
         <f>"sheet"</f>
         <v>sheet</v>
       </c>
-      <c r="B2" s="9" t="str">
+      <c r="B2" s="1" t="str">
         <f>"ice"</f>
         <v>ice</v>
       </c>
-      <c r="C2" s="10" t="str">
+      <c r="C2" s="1" t="str">
         <f>"Mary"</f>
         <v>Mary</v>
       </c>
-      <c r="D2" s="11" t="str">
+      <c r="D2" s="1" t="str">
         <f>"Google Drive"</f>
         <v>Google Drive</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="str">
+      <c r="A3" s="1" t="str">
         <f>"cellulose"</f>
         <v>cellulose</v>
       </c>
-      <c r="B3" s="9" t="str">
+      <c r="B3" s="1" t="str">
         <f>"Christmas"</f>
         <v>Christmas</v>
       </c>
-      <c r="C3" s="10" t="str">
+      <c r="C3" s="1" t="str">
         <f>"had"</f>
         <v>had</v>
       </c>
-      <c r="D3" s="11" t="str">
+      <c r="D3" s="1" t="str">
         <f>"storm"</f>
         <v>storm</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="str">
+      <c r="A4" s="1" t="str">
         <f>"academia"</f>
         <v>academia</v>
       </c>
-      <c r="B4" s="9" t="str">
+      <c r="B4" s="1" t="str">
         <f>"flake"</f>
         <v>flake</v>
       </c>
-      <c r="C4" s="10" t="str">
+      <c r="C4" s="1" t="str">
         <f>"a"</f>
         <v>a</v>
       </c>
-      <c r="D4" s="11" t="str">
+      <c r="D4" s="1" t="str">
         <f>"sky"</f>
         <v>sky</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="str">
+      <c r="A5" s="1" t="str">
         <f>"printer"</f>
         <v>printer</v>
       </c>
-      <c r="B5" s="9" t="str">
+      <c r="B5" s="1" t="str">
         <f>"mountain top"</f>
         <v>mountain top</v>
       </c>
-      <c r="C5" s="10" t="str">
+      <c r="C5" s="1" t="str">
         <f>"little"</f>
         <v>little</v>
       </c>
-      <c r="D5" s="11" t="str">
+      <c r="D5" s="1" t="str">
         <f>"water"</f>
         <v>water</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="str">
+      <c r="A6" s="4" t="str">
         <f>"paper"</f>
         <v>paper</v>
       </c>
-      <c r="B6" s="14" t="str">
+      <c r="B6" s="4" t="str">
         <f>"snow"</f>
         <v>snow</v>
       </c>
-      <c r="C6" s="16" t="str">
+      <c r="C6" s="4" t="str">
         <f>"lamb"</f>
         <v>lamb</v>
       </c>
-      <c r="D6" s="18" t="str">
+      <c r="D6" s="4" t="str">
         <f>"cloud"</f>
         <v>cloud</v>
       </c>
-      <c r="E6" s="7" t="str">
+      <c r="E6" s="5" t="str">
         <f>"white"</f>
         <v>white</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="str">
+      <c r="A7" s="2" t="str">
         <f>"papers"</f>
         <v>papers</v>
       </c>
-      <c r="B7" s="15" t="str">
+      <c r="B7" s="2" t="str">
         <f>"snowy"</f>
         <v>snowy</v>
       </c>
-      <c r="C7" s="17" t="str">
+      <c r="C7" s="2" t="str">
         <f>"sheep"</f>
         <v>sheep</v>
       </c>
-      <c r="D7" s="19" t="str">
+      <c r="D7" s="2" t="str">
         <f>"clouds"</f>
         <v>clouds</v>
       </c>
-      <c r="E7" s="6" t="str">
+      <c r="E7" s="3" t="str">
         <f>"white colour"</f>
         <v>white colour</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="15" t="str">
+      <c r="B8" s="2" t="str">
         <f>"snowing"</f>
         <v>snowing</v>
       </c>
-      <c r="C8" s="17" t="str">
+      <c r="C8" s="2" t="str">
         <f>"Aries"</f>
         <v>Aries</v>
       </c>
-      <c r="D8" s="19" t="str">
-        <f>"clowdy"</f>
-        <v>clowdy</v>
-      </c>
-      <c r="E8" s="6" t="str">
+      <c r="D8" s="2" t="str">
+        <f>"cloudy"</f>
+        <v>cloudy</v>
+      </c>
+      <c r="E8" s="3" t="str">
         <f>"white color"</f>
         <v>white color</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E9" s="6" t="str">
+      <c r="E9" s="3" t="str">
         <f>"whiteness"</f>
         <v>whiteness</v>
       </c>
@@ -699,4 +563,28 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>